--- a/管理/素材用エクセル/シナリオ.xlsx
+++ b/管理/素材用エクセル/シナリオ.xlsx
@@ -1,32 +1,375 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BAFB1-2F65-4EB5-92D6-4D5A6D8D59D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndEvent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharaMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharaAnime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewLine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20xx年、ここは一人の医者が経営する精神病院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繁盛のしていないその病院は酒と煙草とドラッグを患者に進める</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医者によってバーとして経営されているのであった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日も酒がまずいな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼女がここの院長兼オーナーであるジェシカ・フランディだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼女はグラスに入った酒を飲み干すとおもむろに引き金に指をかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダァン！ダァン！ダァン！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と三発の銃弾を自分のこめかみに向けて放った。</t>
+  </si>
+  <si>
+    <t>乾いた音が響き、医者はうなだれたかと思うとムクリと起き上がり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケラケラと笑い出す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうここはジェシーの精神病院、治療方針は現実逃避。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼女が笑いながら酒を飲んでいるとバーの扉が開かれた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カランカラン</t>
+  </si>
+  <si>
+    <t>とっさに視線とリボルバーを扉に向けるとそこには</t>
+    <rPh sb="4" eb="6">
+      <t>シセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小綺麗な衣服を身にまとった白百合のような女が来店してくる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつもは中毒者(ドランカー)か強盗か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭をやられたパンピーばかり入ってくるものだからと,とっさに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あら、間違えたかしら。そこのあなた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは病院じゃないのかしら。院長はどちらに？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その奇怪な格好をした医者は酒を片手にリボルバーを回している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それと同時に銃を向けられても一切動じない彼女も又、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭のおかしいパンピーの一人なのだろうと理解する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半分はあっているよ、病院兼バーだからな</t>
+  </si>
+  <si>
+    <t>でしたら、もう半分も教えてくださる？</t>
+  </si>
+  <si>
+    <t>私が院長だよ、マスターとよびなー</t>
+  </si>
+  <si>
+    <t>白百合の女がキョトンとした顔でジェシカを見つめる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それもそうだ、酔っ払いの言う事など対してあてにはならない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃を向けたがジェシカは珍しいこともあるいった顔で銃口を下げる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェシカは回らない頭でいかにして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追っ払おうかと考えていると彼女が言う</t>
+  </si>
+  <si>
+    <t>お隣よろしくて？私にも一杯くださらない？</t>
+  </si>
+  <si>
+    <t>回らない頭で考える、飲み仲間ができた！うれしい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェシカは棚の奥から秘蔵の酒を持ってくると</t>
+  </si>
+  <si>
+    <t>１人分のグラスを出し彼女に差し出して酒をつぐ。</t>
+  </si>
+  <si>
+    <t>秘蔵の酒を出した理由は汚いおっさんといかれた患者ばかり来る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このバーに同年代のきれいな女の子が来ることは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェシカにとって特別だったからだ。</t>
+  </si>
+  <si>
+    <t>なかなかノリがいいなお前！名前は？</t>
+  </si>
+  <si>
+    <t>いい名前だ。ハク、私はジェシカ、ジェシーとよびな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ではジェシー、乾杯</t>
+  </si>
+  <si>
+    <t>お、乾杯</t>
+  </si>
+  <si>
+    <t>ジェシカは久ぶりの人との乾杯に少し戸惑いつつグラスを重ねる</t>
+  </si>
+  <si>
+    <t>あら美味しい</t>
+  </si>
+  <si>
+    <t>酒の味もわかるのか！私はわからん、あはは！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラスの氷が溶け始めた頃、彼女は語りだす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本題に移ってもいいかしら</t>
+  </si>
+  <si>
+    <t>うーん、やだ。仕事したくない</t>
+  </si>
+  <si>
+    <t>あら残念、今度良いワインでも持ってこようと思ったのに</t>
+  </si>
+  <si>
+    <t>じゃあいいよ</t>
+  </si>
+  <si>
+    <t>ジェシカがそう承諾すると彼女の柔和だった表情が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少しかたくなり語りだす。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は恋が分からないの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好意を向けられても無碍にしてしまう</t>
+  </si>
+  <si>
+    <t>あら</t>
+  </si>
+  <si>
+    <t>きっと頭の病気なのだわ</t>
+  </si>
+  <si>
+    <t>ふーん</t>
+  </si>
+  <si>
+    <t>ちょっと聞いてるの？</t>
+  </si>
+  <si>
+    <t>あー、そりゃあ感情消失疾患の初期症状だな</t>
+  </si>
+  <si>
+    <t>下手したらあと1ヶ月で廃人だぜ？</t>
+  </si>
+  <si>
+    <t>それをされてなにも動じないハクアイに対してジェシカが言う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そう言うとジェシカは銃をを取り出すとハクの額に向ける</t>
+    <rPh sb="10" eb="11">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こいつを使うのはちょっとリスクがあるー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まあ廃人になるよりマシだが</t>
+  </si>
+  <si>
+    <t>使う上で患者にはいちばん大事なものをかけてもらう必要がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんたは何をかける</t>
+  </si>
+  <si>
+    <t>愛をかけるわ</t>
+  </si>
+  <si>
+    <t>ズドン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と前置きもなく医者が銃を放つと白百合の女が意識を失うと同時に</t>
+  </si>
+  <si>
+    <t>医者の意識もなくなる</t>
+  </si>
+  <si>
+    <t>ハクアイ・シロです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,13 +392,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,13 +737,2309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="6" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">LEN(C3)</f>
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">LEN(C67)</f>
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="2">LEN(C131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="3">LEN(C195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <f t="shared" ref="A259:A288" si="4">LEN(C259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D3:H288">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3 C5:C7 C9:C11 C13:C16 C19:C22 C26 C30:C31 C33 C35 C38:C40 C43 C48:C49 C54:C56 C65:C66 C68 C71:C72 C74:C288">
+    <cfRule type="expression" priority="8">
+      <formula>"IF(A3=""C"",if)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A288">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+      <formula>24</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>"IF(A3=""C""IF(H3&gt;25,""Error"",""OK""),""OK"")"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A288">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B220">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B247">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"L"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D257">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/管理/素材用エクセル/シナリオ.xlsx
+++ b/管理/素材用エクセル/シナリオ.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4BAFB1-2F65-4EB5-92D6-4D5A6D8D59D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A8A3B-55E2-43A1-9AEB-40A737953623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3330" yWindow="7125" windowWidth="24270" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
+    <sheet name="NovelEffect" sheetId="5" r:id="rId2"/>
+    <sheet name="tatie" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,101 +38,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
   <si>
     <t>Position</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EndEvent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CharaMove</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CharaAnime</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NewLine</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Error</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20xx年、ここは一人の医者が経営する精神病院</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>繁盛のしていないその病院は酒と煙草とドラッグを患者に進める</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>医者によってバーとして経営されているのであった。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>今日も酒がまずいな</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>彼女がここの院長兼オーナーであるジェシカ・フランディだ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>彼女はグラスに入った酒を飲み干すとおもむろに引き金に指をかけ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ダァン！ダァン！ダァン！</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>と三発の銃弾を自分のこめかみに向けて放った。</t>
   </si>
   <si>
-    <t>乾いた音が響き、医者はうなだれたかと思うとムクリと起き上がり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケラケラと笑い出す。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そうここはジェシーの精神病院、治療方針は現実逃避。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>彼女が笑いながら酒を飲んでいるとバーの扉が開かれた。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カランカラン</t>
@@ -140,43 +122,43 @@
     <rPh sb="4" eb="6">
       <t>シセン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>小綺麗な衣服を身にまとった白百合のような女が来店してくる。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>いつもは中毒者(ドランカー)か強盗か</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>頭をやられたパンピーばかり入ってくるものだからと,とっさに</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>あら、間違えたかしら。そこのあなた</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ここは病院じゃないのかしら。院長はどちらに？</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>その奇怪な格好をした医者は酒を片手にリボルバーを回している</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それと同時に銃を向けられても一切動じない彼女も又、</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>頭のおかしいパンピーの一人なのだろうと理解する。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>半分はあっているよ、病院兼バーだからな</t>
@@ -189,29 +171,26 @@
   </si>
   <si>
     <t>白百合の女がキョトンとした顔でジェシカを見つめる。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>それもそうだ、酔っ払いの言う事など対してあてにはならない。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>銃を向けたがジェシカは珍しいこともあるいった顔で銃口を下げる</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ジェシカは回らない頭でいかにして</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追っ払おうかと考えていると彼女が言う</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>お隣よろしくて？私にも一杯くださらない？</t>
   </si>
   <si>
     <t>回らない頭で考える、飲み仲間ができた！うれしい！</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ジェシカは棚の奥から秘蔵の酒を持ってくると</t>
@@ -221,11 +200,11 @@
   </si>
   <si>
     <t>秘蔵の酒を出した理由は汚いおっさんといかれた患者ばかり来る</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>このバーに同年代のきれいな女の子が来ることは</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ジェシカにとって特別だったからだ。</t>
@@ -235,7 +214,7 @@
   </si>
   <si>
     <t>いい名前だ。ハク、私はジェシカ、ジェシーとよびな</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ではジェシー、乾杯</t>
@@ -251,11 +230,11 @@
   </si>
   <si>
     <t>酒の味もわかるのか！私はわからん、あはは！</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グラスの氷が溶け始めた頃、彼女は語りだす</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本題に移ってもいいかしら</t>
@@ -271,15 +250,15 @@
   </si>
   <si>
     <t>ジェシカがそう承諾すると彼女の柔和だった表情が</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>少しかたくなり語りだす。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>私は恋が分からないの</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>好意を向けられても無碍にしてしまう</t>
@@ -304,25 +283,25 @@
   </si>
   <si>
     <t>それをされてなにも動じないハクアイに対してジェシカが言う</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>そう言うとジェシカは銃をを取り出すとハクの額に向ける</t>
     <rPh sb="10" eb="11">
       <t>ジュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>こいつを使うのはちょっとリスクがあるー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>まあ廃人になるよりマシだが</t>
   </si>
   <si>
     <t>使う上で患者にはいちばん大事なものをかけてもらう必要がある</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>あんたは何をかける</t>
@@ -332,7 +311,7 @@
   </si>
   <si>
     <t>ズドン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>と前置きもなく医者が銃を放つと白百合の女が意識を失うと同時に</t>
@@ -342,19 +321,383 @@
   </si>
   <si>
     <t>ハクアイ・シロです</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TextureName</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿通常</t>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_Normal.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>通常立ち＿表情差分</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿笑う</t>
+    <rPh sb="5" eb="6">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_Smile.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿驚き</t>
+    <rPh sb="5" eb="6">
+      <t>オドロ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_Surprise.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿シリアス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_Serious.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿泣き（ポップ）</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_CryPop.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿うなだれる</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_Droop.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿ガンギマリ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_Trip.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿銃を自分のこめかみへ</t>
+    <rPh sb="5" eb="6">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_GunToHead.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ポーズ変更</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿銃を突きつける</t>
+    <rPh sb="5" eb="6">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_GunToWho.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ジェシー＿酒を片手にもつ</t>
+    <rPh sb="5" eb="6">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カタテ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Jessica_SakeToHand.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハクアイ＿通常</t>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_Normal.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハクアイ＿笑う</t>
+    <rPh sb="5" eb="6">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_Smile.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハクアイ＿驚き</t>
+    <rPh sb="5" eb="6">
+      <t>オドロ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_Surprise.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハクアイ＿シリアス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_Serious.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハクアイ＿泣き（シリアス）</t>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_CrySerious.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ハクアイ＿うなだれる</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_Droop.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乾いた音が響き、医者はうなだれたかと思うと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ムクリと起き上がりケラケラと笑い出す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CharaImageL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EffectL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CharaImageR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EffectR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハクアイ＿はなす</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Hakuai_Talk.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェシー＿はなす</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jessica_Talk.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彼女を追い払おうかと考えていると彼女が言う</t>
+    <rPh sb="0" eb="2">
+      <t>カノジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラを揺らす</t>
+    <rPh sb="4" eb="5">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銃を撃つ演出</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦闘に移る演出</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Explanation2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラを数秒間揺らす</t>
+    <rPh sb="4" eb="7">
+      <t>スウビョウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定回数画面を暗くする</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦闘に移るカットインを入れる</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Exception1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Exception2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,13 +714,33 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,27 +752,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="悪い" xfId="1" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{E0B29670-166D-4931-A8F5-88C56F97A036}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -423,7 +810,105 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -738,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -751,12 +1236,16 @@
     <col min="3" max="3" width="61.375" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -765,24 +1254,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -791,2255 +1283,3764 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">LEN(C3)</f>
+        <f t="shared" ref="A3:A5" si="0">LEN(C3)</f>
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="A6:A37" si="1">LEN(C6)</f>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <f t="shared" ref="A67:A130" si="1">LEN(C67)</f>
-        <v>13</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>101</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>101</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20">
+        <v>101</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C72" t="s">
-        <v>80</v>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>101</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>101</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>101</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>107</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>107</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>101</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>107</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>101</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>103</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>103</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>103</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>103</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>102</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>102</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>101</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>101</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>101</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <f t="shared" ref="A38:A72" si="2">LEN(C38)</f>
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>101</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>101</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>101</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>101</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>107</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>102</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>102</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>101</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>102</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>102</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>101</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>104</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>104</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>107</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>101</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>104</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>104</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>104</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>104</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>104</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>107</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>104</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>102</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>101</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>102</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>102</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>102</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>102</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>102</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>102</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>102</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>102</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>102</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>102</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73">
         <v>2</v>
       </c>
-      <c r="H73">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>102</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <f t="shared" ref="A74:A130" si="3">LEN(C74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <f t="shared" ref="A131:A194" si="2">LEN(C131)</f>
+        <f t="shared" ref="A131:A194" si="4">LEN(C131)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <f t="shared" ref="A195:A258" si="3">LEN(C195)</f>
+        <f t="shared" ref="A195:A258" si="5">LEN(C195)</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <f t="shared" ref="A259:A288" si="4">LEN(C259)</f>
+        <f t="shared" ref="A259:A288" si="6">LEN(C259)</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D3:H288">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D74:H288 I3:I72 D3:G72">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 C5:C7 C9:C11 C13:C16 C19:C22 C26 C30:C31 C33 C35 C38:C40 C43 C48:C49 C54:C56 C65:C66 C68 C71:C72 C74:C288">
+  <conditionalFormatting sqref="C3 C8:C10 C12:C15 C18:C21 C25 C29:C30 C32 C34 C37:C39 C42 C47:C48 C53:C55 C64:C65 C67 C70:C71 C74:C288 C5:C6">
     <cfRule type="expression" priority="8">
       <formula>"IF(A3=""C"",if)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A288">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+  <conditionalFormatting sqref="A74:A288 A3:A72">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="between">
       <formula>24</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>"IF(A3=""C""IF(H3&gt;25,""Error"",""OK""),""OK"")"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A288">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="A74:A288 A3:A72">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B220">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="B74:B220 B3:B72">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B247">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="B74:B247 B1:B72">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"L"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"L"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D257">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="D74:D257 D3:D72">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EED4C5-C953-4640-87B7-E1BCC5C0E485}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2855C18B-41A7-4A4E-8CF3-A5547E9A869C}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="47.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="30.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="29.875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E8:E52">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B12 D2">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/管理/素材用エクセル/シナリオ.xlsx
+++ b/管理/素材用エクセル/シナリオ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A8A3B-55E2-43A1-9AEB-40A737953623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F50E2-9971-4B04-8836-0750EFE83D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3330" yWindow="7125" windowWidth="24270" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
@@ -38,81 +38,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>Position</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NewLine</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Error</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>20xx年、ここは一人の医者が経営する精神病院</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>繁盛のしていないその病院は酒と煙草とドラッグを患者に進める</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>医者によってバーとして経営されているのであった。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>今日も酒がまずいな</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>彼女がここの院長兼オーナーであるジェシカ・フランディだ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>彼女はグラスに入った酒を飲み干すとおもむろに引き金に指をかけ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ダァン！ダァン！ダァン！</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>と三発の銃弾を自分のこめかみに向けて放った。</t>
   </si>
   <si>
     <t>そうここはジェシーの精神病院、治療方針は現実逃避。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>彼女が笑いながら酒を飲んでいるとバーの扉が開かれた。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カランカラン</t>
@@ -122,43 +122,43 @@
     <rPh sb="4" eb="6">
       <t>シセン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>小綺麗な衣服を身にまとった白百合のような女が来店してくる。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>いつもは中毒者(ドランカー)か強盗か</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>頭をやられたパンピーばかり入ってくるものだからと,とっさに</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>あら、間違えたかしら。そこのあなた</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ここは病院じゃないのかしら。院長はどちらに？</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>その奇怪な格好をした医者は酒を片手にリボルバーを回している</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>それと同時に銃を向けられても一切動じない彼女も又、</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>頭のおかしいパンピーの一人なのだろうと理解する。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>半分はあっているよ、病院兼バーだからな</t>
@@ -171,26 +171,26 @@
   </si>
   <si>
     <t>白百合の女がキョトンとした顔でジェシカを見つめる。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>それもそうだ、酔っ払いの言う事など対してあてにはならない。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>銃を向けたがジェシカは珍しいこともあるいった顔で銃口を下げる</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ジェシカは回らない頭でいかにして</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>お隣よろしくて？私にも一杯くださらない？</t>
   </si>
   <si>
     <t>回らない頭で考える、飲み仲間ができた！うれしい！</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ジェシカは棚の奥から秘蔵の酒を持ってくると</t>
@@ -200,11 +200,11 @@
   </si>
   <si>
     <t>秘蔵の酒を出した理由は汚いおっさんといかれた患者ばかり来る</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>このバーに同年代のきれいな女の子が来ることは</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ジェシカにとって特別だったからだ。</t>
@@ -214,7 +214,7 @@
   </si>
   <si>
     <t>いい名前だ。ハク、私はジェシカ、ジェシーとよびな</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ではジェシー、乾杯</t>
@@ -230,11 +230,11 @@
   </si>
   <si>
     <t>酒の味もわかるのか！私はわからん、あはは！</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>グラスの氷が溶け始めた頃、彼女は語りだす</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>本題に移ってもいいかしら</t>
@@ -250,15 +250,15 @@
   </si>
   <si>
     <t>ジェシカがそう承諾すると彼女の柔和だった表情が</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>少しかたくなり語りだす。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>私は恋が分からないの</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>好意を向けられても無碍にしてしまう</t>
@@ -283,25 +283,25 @@
   </si>
   <si>
     <t>それをされてなにも動じないハクアイに対してジェシカが言う</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>そう言うとジェシカは銃をを取り出すとハクの額に向ける</t>
     <rPh sb="10" eb="11">
       <t>ジュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>こいつを使うのはちょっとリスクがあるー</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>まあ廃人になるよりマシだが</t>
   </si>
   <si>
     <t>使う上で患者にはいちばん大事なものをかけてもらう必要がある</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>あんたは何をかける</t>
@@ -311,7 +311,7 @@
   </si>
   <si>
     <t>ズドン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>と前置きもなく医者が銃を放つと白百合の女が意識を失うと同時に</t>
@@ -321,34 +321,30 @@
   </si>
   <si>
     <t>ハクアイ・シロです</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TextureName</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Number</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿通常</t>
     <rPh sb="5" eb="7">
       <t>ツウジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_Normal.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>通常立ち＿表情差分</t>
@@ -364,64 +360,64 @@
     <rPh sb="7" eb="9">
       <t>サブン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿笑う</t>
     <rPh sb="5" eb="6">
       <t>ワラ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_Smile.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿驚き</t>
     <rPh sb="5" eb="6">
       <t>オドロ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_Surprise.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿シリアス</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_Serious.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿泣き（ポップ）</t>
     <rPh sb="5" eb="6">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_CryPop.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿うなだれる</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_Droop.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿ガンギマリ</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_Trip.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿銃を自分のこめかみへ</t>
@@ -431,18 +427,18 @@
     <rPh sb="7" eb="9">
       <t>ジブン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_GunToHead.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ポーズ変更</t>
     <rPh sb="3" eb="5">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿銃を突きつける</t>
@@ -452,11 +448,11 @@
     <rPh sb="7" eb="8">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_GunToWho.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ジェシー＿酒を片手にもつ</t>
@@ -466,133 +462,133 @@
     <rPh sb="7" eb="9">
       <t>カタテ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Jessica_SakeToHand.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハクアイ＿通常</t>
     <rPh sb="5" eb="7">
       <t>ツウジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_Normal.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハクアイ＿笑う</t>
     <rPh sb="5" eb="6">
       <t>ワラ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_Smile.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハクアイ＿驚き</t>
     <rPh sb="5" eb="6">
       <t>オドロ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_Surprise.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハクアイ＿シリアス</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_Serious.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハクアイ＿泣き（シリアス）</t>
     <rPh sb="5" eb="6">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_CrySerious.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ハクアイ＿うなだれる</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_Droop.png</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>乾いた音が響き、医者はうなだれたかと思うと</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ムクリと起き上がりケラケラと笑い出す。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CharaImageL</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EffectL</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CharaImageR</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EffectR</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ハクアイ＿はなす</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hakuai_Talk.png</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ジェシー＿はなす</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Jessica_Talk.png</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>彼女を追い払おうかと考えていると彼女が言う</t>
     <rPh sb="0" eb="2">
       <t>カノジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Number</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>キャラを揺らす</t>
     <rPh sb="4" eb="5">
       <t>ユ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>銃を撃つ演出</t>
@@ -605,7 +601,7 @@
     <rPh sb="4" eb="6">
       <t>エンシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>戦闘に移る演出</t>
@@ -618,15 +614,15 @@
     <rPh sb="5" eb="7">
       <t>エンシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Explanation</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Explanation2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>キャラを数秒間揺らす</t>
@@ -636,7 +632,7 @@
     <rPh sb="7" eb="8">
       <t>ユ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>指定回数画面を暗くする</t>
@@ -652,7 +648,7 @@
     <rPh sb="7" eb="8">
       <t>クラ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>戦闘に移るカットインを入れる</t>
@@ -665,31 +661,39 @@
     <rPh sb="11" eb="12">
       <t>イ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Exception1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Exception2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TextureName</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -751,32 +755,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1260,16 +1276,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
       <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1553,7 +1569,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1580,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1771,8 +1787,8 @@
       <c r="F20">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
-        <v>138</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>101</v>
@@ -2078,7 +2094,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4542,7 +4558,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="D74:H288 I3:I72 D3:G72">
     <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>0</formula>
@@ -4606,13 +4622,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4628,10 +4644,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4639,10 +4655,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4650,10 +4666,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4661,27 +4677,27 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2855C18B-41A7-4A4E-8CF3-A5547E9A869C}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4698,227 +4714,225 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>83</v>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="4">
         <v>103</v>
@@ -4926,13 +4940,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4">
         <v>104</v>
@@ -4940,13 +4954,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4">
         <v>105</v>
@@ -4954,13 +4968,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="4">
         <v>106</v>
@@ -4968,20 +4982,20 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="E8:E52">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>1</formula>
